--- a/Ciencia de datos y sus aplicaciones/Proyectos/Proyecto 1/Datos y Modelos.xlsx
+++ b/Ciencia de datos y sus aplicaciones/Proyectos/Proyecto 1/Datos y Modelos.xlsx
@@ -4,19 +4,25 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Cantidad_Fugados" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Rendimiento_Regresión_Logística" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Variables_Significativas" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Dataset_Teléfono" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Dataset_Internet" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Dataset_Ambos_Servicios" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Rendimiento_Modelos" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Rendimiento_Regresión_Logística" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Variables_Significativas" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Dataset_Teléfono" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Dataset_Internet" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Dataset_Ambos_Servicios" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="3ZQzaWlPxIoBaFUyNIKhGPGsVvci/cV/v7ldD4UK3rQ="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="154">
   <si>
     <t>Dataset</t>
   </si>
@@ -33,6 +39,9 @@
     <t>Probab_Fugado</t>
   </si>
   <si>
+    <t>%_Fugados</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t>Ambos servicios</t>
   </si>
   <si>
+    <t>Todos</t>
+  </si>
+  <si>
     <t>Modelo</t>
   </si>
   <si>
@@ -84,6 +96,39 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>Regresión logística</t>
+  </si>
+  <si>
+    <t>Árbol de decisiones</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>38 vecinos cercanos</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Support vector machines</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Naive Bayes Gaussiano</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Red neuronal (1 x 31)</t>
+  </si>
+  <si>
     <t>Regresión logística teléfono</t>
   </si>
   <si>
@@ -120,27 +165,15 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Tipo_Contrato_mensual</t>
   </si>
   <si>
     <t>Recomendaciones.realizadas</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Numero.Dependientes</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Plan_D</t>
   </si>
   <si>
@@ -189,78 +222,203 @@
     <t>Mediana_Fugado_SI</t>
   </si>
   <si>
+    <t>Probabilidad_Fuga</t>
+  </si>
+  <si>
     <t>Sexo</t>
   </si>
   <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
     <t>Multiples lineas</t>
   </si>
   <si>
+    <t>No Casado</t>
+  </si>
+  <si>
     <t>Plan_A</t>
   </si>
   <si>
+    <t>Si Casado</t>
+  </si>
+  <si>
+    <t>No Multiples lineas</t>
+  </si>
+  <si>
     <t>Plan_C</t>
   </si>
   <si>
+    <t>Si Multiples lineas</t>
+  </si>
+  <si>
+    <t>No Plan_A</t>
+  </si>
+  <si>
     <t>Plan_E</t>
   </si>
   <si>
+    <t>Si Plan_A</t>
+  </si>
+  <si>
     <t>Plan_Ninguno</t>
   </si>
   <si>
+    <t>No Plan_B</t>
+  </si>
+  <si>
+    <t>Si Plan_B</t>
+  </si>
+  <si>
+    <t>No Plan_C</t>
+  </si>
+  <si>
     <t>Tipo_Contrato_más_largo</t>
   </si>
   <si>
+    <t>Si Plan_C</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>No Plan_D</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>Numero Dependientes</t>
   </si>
   <si>
+    <t>Si Plan_D</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>Recomendaciones realizadas</t>
   </si>
   <si>
+    <t>No Plan_E</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
     <t>Meses como Cliente</t>
   </si>
   <si>
+    <t>Si Plan_E</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>Cargo Mensual LLamadas</t>
   </si>
   <si>
+    <t>No Plan_Ninguno</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
     <t>Cobro Mensual</t>
   </si>
   <si>
+    <t>Si Plan_Ninguno</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>Historico de Devoluciones</t>
   </si>
   <si>
+    <t>No Tipo_Contrato_mensual</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
     <t>Historico Cargos Llamadas</t>
   </si>
   <si>
+    <t>Si Tipo_Contrato_mensual</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
     <t>Historico Cobro Acumulado</t>
   </si>
   <si>
+    <t>No Tipo_Contrato_anual</t>
+  </si>
+  <si>
+    <t>Si Tipo_Contrato_anual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Nota</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: las variables categóricas están expresadas como variables binarias. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Sexo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: 0 Mujer, 1 Hombre; </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Otras variables</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: 0 No, 1 Si.</t>
+    </r>
+  </si>
+  <si>
+    <t>No Tipo_Contrato_más_largo</t>
+  </si>
+  <si>
+    <t>Si Tipo_Contrato_más_largo</t>
+  </si>
+  <si>
     <t>Servicio Adicional Antivirus</t>
   </si>
   <si>
@@ -270,21 +428,69 @@
     <t>Seguro Proteccion Equipo</t>
   </si>
   <si>
+    <t>No Servicio Adicional Antivirus</t>
+  </si>
+  <si>
     <t>Servicio Soporte Premium</t>
   </si>
   <si>
+    <t>Si Servicio Adicional Antivirus</t>
+  </si>
+  <si>
     <t>Usa Streaming TV</t>
   </si>
   <si>
+    <t>No Servicio Respaldo en la Nube</t>
+  </si>
+  <si>
     <t>Usa Streaming Peliculas</t>
   </si>
   <si>
+    <t>Si Servicio Respaldo en la Nube</t>
+  </si>
+  <si>
     <t>Usa Streaming Musica</t>
   </si>
   <si>
+    <t>No Seguro Proteccion Equipo</t>
+  </si>
+  <si>
     <t>Plan Ilimitado Datos</t>
   </si>
   <si>
+    <t>Si Seguro Proteccion Equipo</t>
+  </si>
+  <si>
+    <t>No Servicio Soporte Premium</t>
+  </si>
+  <si>
+    <t>Si Servicio Soporte Premium</t>
+  </si>
+  <si>
+    <t>No Usa Streaming TV</t>
+  </si>
+  <si>
+    <t>Si Usa Streaming TV</t>
+  </si>
+  <si>
+    <t>No Usa Streaming Peliculas</t>
+  </si>
+  <si>
+    <t>Si Usa Streaming Peliculas</t>
+  </si>
+  <si>
+    <t>No Usa Streaming Musica</t>
+  </si>
+  <si>
+    <t>Si Usa Streaming Musica</t>
+  </si>
+  <si>
+    <t>No Plan Ilimitado Datos</t>
+  </si>
+  <si>
+    <t>Si Plan Ilimitado Datos</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -312,6 +518,56 @@
     <t>28</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Nota</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: las variables categóricas están expresadas como variables binarias. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Sexo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: 0 Mujer, 1 Hombre; </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Otras variables</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: 0 No, 1 Si.</t>
+    </r>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -319,13 +575,63 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Nota</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: las variables categóricas están expresadas como variables binarias. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Sexo</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">: 0 Mujer, 1 Hombre; </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>Otras variables</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: 0 No, 1 Si.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -336,6 +642,20 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,20 +664,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +764,20 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -387,26 +793,78 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -436,6 +894,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -645,7 +1107,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="6" width="15.29"/>
-    <col customWidth="1" min="7" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,72 +1119,119 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
         <v>1231.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>113.0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>1344.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>8.41</v>
       </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G5" si="1">D2*100/SUM($E$2:$E$4)</f>
+        <v>1.714979511</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
         <v>474.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>170.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>644.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>26.4</v>
       </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>2.580057672</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
         <v>3015.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1586.0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>4601.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>34.47</v>
       </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>24.0704204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:E5" si="2">SUM(C2:C4)</f>
+        <v>4720</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>1869</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>6589</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*100/E5</f>
+        <v>28.36545758</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>28.36545758</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1724,160 +2232,311 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="11" width="20.43"/>
-    <col customWidth="1" min="12" max="12" width="13.86"/>
-    <col customWidth="1" min="13" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="22.14"/>
+    <col customWidth="1" min="3" max="7" width="14.0"/>
+    <col customWidth="1" min="8" max="11" width="21.14"/>
+    <col customWidth="1" min="12" max="12" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.9179</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.935</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.7273</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.2077000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.9544</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.8543</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.8983</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.7433</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.8983</v>
+      </c>
+      <c r="H2" s="10">
+        <v>424.0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>139.0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.8665</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.9492</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.6578</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2914</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.9106</v>
+      </c>
+      <c r="H3" s="4">
+        <v>448.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.8695</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.9449</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.6791</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2657999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.9121</v>
+      </c>
+      <c r="H4" s="4">
+        <v>446.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>127.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.8316</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.9174</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.615</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.3024</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.8864</v>
+      </c>
+      <c r="H5" s="4">
+        <v>433.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="K5" s="4">
         <v>115.0</v>
       </c>
-      <c r="I2" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.8438</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.8723</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.7647</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.10759999999999992</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.8913</v>
-      </c>
-      <c r="H3" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.8217</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.8306</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.805</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.025599999999999956</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.8591</v>
-      </c>
-      <c r="H4" s="5">
-        <v>250.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>51.0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>31.0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="L5" s="4">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.8513</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.8941</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.7433</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.15080000000000005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.896</v>
+      </c>
+      <c r="H6" s="4">
+        <v>422.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>139.0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.8012</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.803</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.7968</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.006200000000000094</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.8526</v>
+      </c>
+      <c r="H7" s="4">
+        <v>379.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>93.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>149.0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.8222</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.6882</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.18679999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.8759</v>
+      </c>
+      <c r="H8" s="4">
+        <v>413.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="K8" s="4">
         <v>128.0</v>
       </c>
-      <c r="L4" s="5">
-        <v>460.0</v>
+      <c r="L8" s="4">
+        <v>658.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2879,157 +3538,159 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="26.0"/>
+    <col customWidth="1" min="3" max="7" width="13.86"/>
+    <col customWidth="1" min="8" max="11" width="20.43"/>
+    <col customWidth="1" min="12" max="12" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.9179</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.935</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.7273</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.2077000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.9544</v>
+      </c>
+      <c r="H2" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>134.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.8438</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.8723</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.7647</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.10759999999999992</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.8913</v>
+      </c>
+      <c r="H3" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>64.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
+      <c r="C4" s="4">
+        <v>0.8217</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8306</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.805</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.025599999999999956</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.8591</v>
+      </c>
+      <c r="H4" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>460.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4031,448 +4692,161 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="8" width="23.0"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="4" width="25.71"/>
+    <col customWidth="1" min="5" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.5053</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.5044</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.5491</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.2566</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.2624</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.0885</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.0747</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.1284</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.0354</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.0642</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0177</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.1259</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.0885</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.0561</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.3982</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.5508</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.4602</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.2088</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.8761</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.2778</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0796</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.5134</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.0442</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>43.04</v>
-      </c>
-      <c r="F14" s="5">
-        <v>43.47</v>
-      </c>
-      <c r="G14" s="5">
-        <v>43.0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>2.52</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.28</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>36.93</v>
-      </c>
-      <c r="F17" s="8">
-        <v>8.24</v>
-      </c>
-      <c r="G17" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>13112.41</v>
-      </c>
-      <c r="F18" s="5">
-        <v>13048.04</v>
-      </c>
-      <c r="G18" s="5">
-        <v>13109.2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>13208.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>10821.41</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10216.16</v>
-      </c>
-      <c r="G19" s="5">
-        <v>10478.0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10400.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>1045.34</v>
-      </c>
-      <c r="F20" s="5">
-        <v>226.73</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>483751.87</v>
-      </c>
-      <c r="F21" s="5">
-        <v>108157.75</v>
-      </c>
-      <c r="G21" s="5">
-        <v>343252.0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>23654.8</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>899545.58</v>
-      </c>
-      <c r="F22" s="5">
-        <v>198369.37</v>
-      </c>
-      <c r="G22" s="5">
-        <v>754291.2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>35573.2</v>
-      </c>
-    </row>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -5469,585 +5843,2691 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="26.86"/>
-    <col customWidth="1" min="3" max="8" width="23.29"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="5.43"/>
+    <col customWidth="1" min="2" max="2" width="26.0"/>
+    <col customWidth="1" min="3" max="8" width="23.0"/>
+    <col customWidth="1" min="9" max="9" width="2.86"/>
+    <col customWidth="1" min="10" max="10" width="5.43"/>
+    <col customWidth="1" min="11" max="11" width="26.43"/>
+    <col customWidth="1" min="12" max="12" width="17.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.5053</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.5044</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="23">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.5491</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.2566</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="23">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.2624</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.0885</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="27">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.0747</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="27">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.1284</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.0354</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="23">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.0642</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0177</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="23">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>50</v>
       </c>
+      <c r="C8" s="20">
+        <v>0.1259</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0885</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="23">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.0561</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.3982</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.5508</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.4602</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="27">
+        <v>9.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.2088</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.8761</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="27">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.2778</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.0796</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="23">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.5134</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.0442</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="23">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>43.04</v>
+      </c>
+      <c r="F14" s="20">
+        <v>43.47</v>
+      </c>
+      <c r="G14" s="20">
+        <v>43.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>42.0</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="23">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.38</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="21">
+        <v>14.0</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="23">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <v>2.52</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.28</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="21">
+        <v>15.0</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="23">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25">
+        <v>36.93</v>
+      </c>
+      <c r="F17" s="25">
+        <v>8.24</v>
+      </c>
+      <c r="G17" s="25">
+        <v>35.0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="23">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <v>13112.41</v>
+      </c>
+      <c r="F18" s="20">
+        <v>13048.04</v>
+      </c>
+      <c r="G18" s="20">
+        <v>13109.2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>13208.0</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="21">
+        <v>17.0</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="23">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <v>10821.41</v>
+      </c>
+      <c r="F19" s="20">
+        <v>10216.16</v>
+      </c>
+      <c r="G19" s="20">
+        <v>10478.0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>10400.0</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="21">
+        <v>18.0</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="23">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>1045.34</v>
+      </c>
+      <c r="F20" s="20">
+        <v>226.73</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="21">
+        <v>19.0</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="27">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <v>483751.87</v>
+      </c>
+      <c r="F21" s="20">
+        <v>108157.75</v>
+      </c>
+      <c r="G21" s="20">
+        <v>343252.0</v>
+      </c>
+      <c r="H21" s="20">
+        <v>23654.8</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="27">
+        <v>27.81</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <v>899545.58</v>
+      </c>
+      <c r="F22" s="20">
+        <v>198369.37</v>
+      </c>
+      <c r="G22" s="20">
+        <v>754291.2</v>
+      </c>
+      <c r="H22" s="20">
+        <v>35573.2</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="21">
+        <v>21.0</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="23">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="J23" s="21">
+        <v>22.0</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="23">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="21">
+        <v>23.0</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="23">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="J25" s="21">
+        <v>24.0</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.71"/>
+    <col customWidth="1" min="2" max="2" width="26.86"/>
+    <col customWidth="1" min="3" max="8" width="23.29"/>
+    <col customWidth="1" min="9" max="9" width="3.0"/>
+    <col customWidth="1" min="10" max="10" width="5.71"/>
+    <col customWidth="1" min="11" max="11" width="29.0"/>
+    <col customWidth="1" min="12" max="12" width="18.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.5148</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5294</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="23">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.5063</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.3588</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="23">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.5295</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1706</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="27">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.4789</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="27">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5359</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.2882</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="23">
+        <v>38.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.5295</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1647</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="23">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.462</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.3765</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="23">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.4705</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.4235</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="23">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.4473</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.3765</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="23">
+        <v>35.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.865</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.8118</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="23">
+        <v>16.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.0949</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.0059</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="23">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1435</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.0529</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="23">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.0781</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.0353</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="23">
+        <v>29.36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.0759</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.0529</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="21">
+        <v>14.0</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="23">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.0422</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="21">
+        <v>15.0</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="23">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5654</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.5529</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="23">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.3418</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="21">
+        <v>17.0</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="23">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.5148</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.5294</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.5063</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.3588</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C19" s="4">
+        <v>0.2848</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.0824</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="21">
+        <v>18.0</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="23">
+        <v>23.19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.3734</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.0176</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="21">
+        <v>19.0</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="23">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="F21" s="4">
+        <v>49.89</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="J21" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="23">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>21.0</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="23">
+        <v>28.26</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.55</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>22.0</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="23">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
+        <v>39.88</v>
+      </c>
+      <c r="F24" s="11">
+        <v>15.84</v>
+      </c>
+      <c r="G24" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="J24" s="21">
+        <v>23.0</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.5295</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.1706</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="L24" s="23">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>41.39</v>
+      </c>
+      <c r="F25" s="4">
+        <v>37.57</v>
+      </c>
+      <c r="G25" s="4">
+        <v>33.75</v>
+      </c>
+      <c r="H25" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="J25" s="21">
+        <v>24.0</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.4789</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="L25" s="23">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>22826.96</v>
+      </c>
+      <c r="F26" s="4">
+        <v>19051.12</v>
+      </c>
+      <c r="G26" s="4">
+        <v>23127.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>18434.0</v>
+      </c>
+      <c r="J26" s="21">
+        <v>25.0</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.5359</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.2882</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.5295</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.1647</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="L26" s="23">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>1203.23</v>
+      </c>
+      <c r="F27" s="4">
+        <v>419.73</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="21">
+        <v>26.0</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.462</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.3765</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.4705</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.4235</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="L27" s="23">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>4805.06</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5230.59</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="21">
+        <v>27.0</v>
+      </c>
+      <c r="K28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="5">
-        <v>0.4473</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.3765</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.865</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.8118</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.0949</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0059</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.1435</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.0529</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.0781</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.0759</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.0529</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.0422</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.5654</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.5529</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.3418</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.2848</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.0824</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.3734</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.0176</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>45.09</v>
-      </c>
-      <c r="F21" s="5">
-        <v>49.89</v>
-      </c>
-      <c r="G21" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.55</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="L28" s="23">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
+        <v>993690.34</v>
+      </c>
+      <c r="F29" s="11">
+        <v>362096.59</v>
+      </c>
+      <c r="G29" s="11">
+        <v>873574.0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>126204.0</v>
+      </c>
+      <c r="J29" s="21">
+        <v>28.0</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>39.88</v>
-      </c>
-      <c r="F24" s="8">
-        <v>15.84</v>
-      </c>
-      <c r="G24" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
-        <v>41.39</v>
-      </c>
-      <c r="F25" s="5">
-        <v>37.57</v>
-      </c>
-      <c r="G25" s="5">
-        <v>33.75</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="L29" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="J30" s="21">
+        <v>29.0</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="23">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="21">
         <v>30.0</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>22826.96</v>
-      </c>
-      <c r="F26" s="5">
-        <v>19051.12</v>
-      </c>
-      <c r="G26" s="5">
-        <v>23127.0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>18434.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>1203.23</v>
-      </c>
-      <c r="F27" s="5">
-        <v>419.73</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="K31" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>4805.06</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5230.59</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
-        <v>993690.34</v>
-      </c>
-      <c r="F29" s="8">
-        <v>362096.59</v>
-      </c>
-      <c r="G29" s="8">
-        <v>873574.0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>126204.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
+      <c r="L31" s="23">
+        <v>71.83</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="J32" s="21">
+        <v>31.0</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="23">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="J33" s="21">
+        <v>32.0</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="23">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="J34" s="21">
+        <v>33.0</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="27">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="J35" s="21">
+        <v>34.0</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="27">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="J36" s="21">
+        <v>35.0</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="23">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="J37" s="21">
+        <v>36.0</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" s="23">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="J38" s="21">
+        <v>37.0</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="23">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="J39" s="21">
+        <v>38.0</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="23">
+        <v>1.67</v>
+      </c>
+    </row>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -7017,7 +9497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -7027,646 +9507,1027 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="4.57"/>
     <col customWidth="1" min="2" max="2" width="25.86"/>
     <col customWidth="1" min="3" max="8" width="23.0"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="2.71"/>
+    <col customWidth="1" min="10" max="10" width="4.57"/>
+    <col customWidth="1" min="11" max="11" width="29.57"/>
+    <col customWidth="1" min="12" max="12" width="18.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.5028</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.4937</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="23">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.5748</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.3651</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="J3" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="23">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.5814</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.5296</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="J4" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="35">
+        <v>43.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.4733</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.1677</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="J5" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="27">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.539</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.2976</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="J6" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="23">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.5277</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.3127</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="31">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="23">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.4763</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.1778</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="J8" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="35">
+        <v>45.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.539</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.4729</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="27">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.5446</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.4704</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="31">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="23">
+        <v>44.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.4962</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.4187</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="23">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.8653</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="31">
+        <v>11.0</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="23">
+        <v>43.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.1154</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.0214</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="31">
+        <v>12.0</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="23">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.1648</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.0555</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="31">
+        <v>13.0</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="35">
+        <v>45.23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.0677</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.0549</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="31">
+        <v>14.0</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="27">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C16" s="25">
+        <v>0.0829</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.0895</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="J16" s="31">
+        <v>15.0</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="23">
+        <v>37.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.0381</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.2081</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="J17" s="31">
+        <v>16.0</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="23">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.531</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.5706</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="31">
+        <v>17.0</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="23">
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.3741</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.8846</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="J19" s="31">
+        <v>18.0</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="23">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.5028</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.4937</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.5748</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.3651</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.5814</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.5296</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C20" s="25">
+        <v>0.2929</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.0902</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="J20" s="31">
+        <v>19.0</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="23">
+        <v>37.77</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.333</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.0252</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="J21" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="23">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
+        <v>46.7</v>
+      </c>
+      <c r="F22" s="25">
+        <v>50.17</v>
+      </c>
+      <c r="G22" s="25">
+        <v>46.0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>50.0</v>
+      </c>
+      <c r="J22" s="31">
+        <v>21.0</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="23">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="23">
+        <v>34.33</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33">
+        <v>2.69</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="31">
+        <v>23.0</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="23">
+        <v>36.79</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33">
+        <v>42.9</v>
+      </c>
+      <c r="F25" s="33">
+        <v>18.9</v>
+      </c>
+      <c r="G25" s="33">
+        <v>45.0</v>
+      </c>
+      <c r="H25" s="33">
+        <v>11.0</v>
+      </c>
+      <c r="J25" s="31">
+        <v>24.0</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="23">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>13320.58</v>
+      </c>
+      <c r="F26" s="20">
+        <v>13267.17</v>
+      </c>
+      <c r="G26" s="20">
+        <v>13452.4</v>
+      </c>
+      <c r="H26" s="20">
+        <v>13418.599999999999</v>
+      </c>
+      <c r="J26" s="31">
+        <v>25.0</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.4733</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.1677</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="L26" s="23">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20">
+        <v>41.31</v>
+      </c>
+      <c r="F27" s="20">
+        <v>35.17</v>
+      </c>
+      <c r="G27" s="20">
+        <v>33.0</v>
+      </c>
+      <c r="H27" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="J27" s="31">
+        <v>26.0</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.539</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.2976</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="L27" s="23">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25">
+        <v>42251.14</v>
+      </c>
+      <c r="F28" s="25">
+        <v>42176.51</v>
+      </c>
+      <c r="G28" s="25">
+        <v>43394.0</v>
+      </c>
+      <c r="H28" s="25">
+        <v>43641.0</v>
+      </c>
+      <c r="J28" s="31">
+        <v>27.0</v>
+      </c>
+      <c r="K28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.5277</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.3127</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.4763</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.1778</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="L28" s="23">
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
+        <v>1259.19</v>
+      </c>
+      <c r="F29" s="20">
+        <v>869.67</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="31">
+        <v>28.0</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.539</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.4729</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.5446</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.4704</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="L29" s="23">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <v>5084.44</v>
+      </c>
+      <c r="F30" s="20">
+        <v>3826.23</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="31">
+        <v>29.0</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.4962</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.4187</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.8653</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.1154</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.0214</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.1648</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.0555</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.0677</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.0549</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.0829</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.0895</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.0381</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.2081</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.531</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.5706</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.3741</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.8846</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.2929</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.0902</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.333</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.0252</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
-        <v>46.7</v>
-      </c>
-      <c r="F22" s="8">
-        <v>50.17</v>
-      </c>
-      <c r="G22" s="8">
-        <v>46.0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="L30" s="27">
+        <v>34.31</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20">
+        <v>569570.83</v>
+      </c>
+      <c r="F31" s="20">
+        <v>258192.91</v>
+      </c>
+      <c r="G31" s="20">
+        <v>446659.2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>100536.8</v>
+      </c>
+      <c r="J31" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>2.69</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
-        <v>42.9</v>
-      </c>
-      <c r="F25" s="8">
-        <v>18.9</v>
-      </c>
-      <c r="G25" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="L31" s="27">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25">
+        <v>2517576.81</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1155073.74</v>
+      </c>
+      <c r="G32" s="25">
+        <v>2457338.0</v>
+      </c>
+      <c r="H32" s="25">
+        <v>594024.6</v>
+      </c>
+      <c r="J32" s="31">
+        <v>31.0</v>
+      </c>
+      <c r="K32" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>13320.58</v>
-      </c>
-      <c r="F26" s="5">
-        <v>13267.17</v>
-      </c>
-      <c r="G26" s="5">
-        <v>13452.4</v>
-      </c>
-      <c r="H26" s="5">
-        <v>13418.599999999999</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>41.31</v>
-      </c>
-      <c r="F27" s="5">
-        <v>35.17</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="L32" s="23">
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="J33" s="31">
+        <v>32.0</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="23">
+        <v>74.16</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="31">
         <v>33.0</v>
       </c>
-      <c r="H27" s="5">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
-        <v>42251.14</v>
-      </c>
-      <c r="F28" s="8">
-        <v>42176.51</v>
-      </c>
-      <c r="G28" s="8">
-        <v>43394.0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>43641.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>1259.19</v>
-      </c>
-      <c r="F29" s="5">
-        <v>869.67</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>5084.44</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3826.23</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="K34" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>569570.83</v>
-      </c>
-      <c r="F31" s="5">
-        <v>258192.91</v>
-      </c>
-      <c r="G31" s="5">
-        <v>446659.2</v>
-      </c>
-      <c r="H31" s="5">
-        <v>100536.8</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8">
-        <v>2517576.81</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1155073.74</v>
-      </c>
-      <c r="G32" s="8">
-        <v>2457338.0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>594024.6</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
+      <c r="L34" s="23">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="J35" s="31">
+        <v>34.0</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="23">
+        <v>36.11</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="J36" s="31">
+        <v>35.0</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="27">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="J37" s="31">
+        <v>36.0</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="35">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="J38" s="31">
+        <v>37.0</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="27">
+        <v>40.36</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="J39" s="31">
+        <v>38.0</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="27">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="J40" s="31">
+        <v>39.0</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="23">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="J41" s="31">
+        <v>40.0</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="23">
+        <v>3.83</v>
+      </c>
+    </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
